--- a/ope.ed.gov/2003/arrests-noncampus-virginia-colleges-and-universities-crime-2003.xlsx
+++ b/ope.ed.gov/2003/arrests-noncampus-virginia-colleges-and-universities-crime-2003.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>Bluefield College</t>
@@ -391,34 +388,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2003.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>731.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -426,19 +447,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231554.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
-        <v>731.0</v>
+        <v>4812.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -455,22 +476,22 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>4812.0</v>
+        <v>7749.0</v>
       </c>
       <c s="1" r="G4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H4">
         <v>0.0</v>
@@ -484,22 +505,22 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231624.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>7749.0</v>
+        <v>638.0</v>
       </c>
       <c s="1" r="G5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H5">
         <v>0.0</v>
@@ -513,19 +534,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231970.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
-        <v>638.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -542,25 +563,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B7">
-        <v>442806.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>154.0</v>
+        <v>954.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
       </c>
       <c s="1" r="H7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I7">
         <v>0.0</v>
@@ -571,25 +592,25 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B8">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
-        <v>954.0</v>
+        <v>28246.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
       </c>
       <c s="1" r="H8">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I8">
         <v>0.0</v>
@@ -600,19 +621,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
-        <v>28246.0</v>
+        <v>1039.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -629,28 +650,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B10">
-        <v>232256.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
-        <v>1039.0</v>
+        <v>16203.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
       </c>
       <c s="1" r="H10">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I10">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +682,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>16203.0</v>
@@ -676,10 +697,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H11">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I11">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +708,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232423.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
-        <v>16203.0</v>
+        <v>4252.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -708,7 +729,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13">
@@ -716,19 +737,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>4252.0</v>
+        <v>2009.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -737,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I13">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -745,19 +766,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>2009.0</v>
+        <v>3741.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -774,19 +795,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>3741.0</v>
+        <v>2875.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -803,19 +824,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>2875.0</v>
+        <v>4327.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -832,19 +853,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B17">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>4327.0</v>
+        <v>52.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -861,19 +882,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B18">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>52.0</v>
+        <v>45.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -890,19 +911,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B19">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>45.0</v>
+        <v>6846.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -919,19 +940,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>6846.0</v>
+        <v>38097.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -951,13 +972,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
         <v>38097.0</v>
@@ -980,13 +1001,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
         <v>38097.0</v>
@@ -1009,13 +1030,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
         <v>38097.0</v>
@@ -1035,28 +1056,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>38097.0</v>
+        <v>20802.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
       </c>
       <c s="1" r="H24">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="I24">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="25">
@@ -1064,28 +1085,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>20802.0</v>
+        <v>3492.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
       </c>
       <c s="1" r="H25">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1093,19 +1114,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B26">
-        <v>233019.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>3492.0</v>
+        <v>9219.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1114,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1122,19 +1143,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B27">
-        <v>233277.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>9219.0</v>
+        <v>480.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1143,7 +1164,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1151,19 +1172,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B28">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>480.0</v>
+        <v>154.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1180,19 +1201,16 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233408.0</v>
+        <v>435213.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
-      </c>
-      <c s="1" r="F29">
-        <v>154.0</v>
+        <v>64</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1209,16 +1227,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B30">
-        <v>435213.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c s="1" r="F30">
+        <v>475.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1235,19 +1256,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B31">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>475.0</v>
+        <v>2851.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1264,19 +1285,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B32">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>2851.0</v>
+        <v>4894.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1293,19 +1314,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233639.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>4894.0</v>
+        <v>852.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1322,19 +1343,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B34">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>852.0</v>
+        <v>1703.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1351,19 +1372,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>1703.0</v>
+        <v>7889.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -1372,7 +1393,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I35">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1380,19 +1401,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>7889.0</v>
+        <v>23088.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -1401,7 +1422,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I36">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1409,19 +1430,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>23088.0</v>
+        <v>4792.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -1438,28 +1459,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B38">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>4792.0</v>
+        <v>4444.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
       </c>
       <c s="1" r="H38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1467,19 +1488,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>4444.0</v>
+        <v>23077.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -1488,7 +1509,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="I39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1496,28 +1517,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B40">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>23077.0</v>
+        <v>26631.0</v>
       </c>
       <c s="1" r="G40">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H40">
-        <v>1.0</v>
+        <v>44.0</v>
       </c>
       <c s="1" r="I40">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="41">
@@ -1528,25 +1549,25 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>26631.0</v>
       </c>
       <c s="1" r="G41">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H41">
-        <v>44.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I41">
-        <v>36.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
@@ -1554,28 +1575,28 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B42">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>26631.0</v>
+        <v>1124.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
       </c>
       <c s="1" r="H42">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1583,19 +1604,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B43">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>1124.0</v>
+        <v>1333.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -1612,19 +1633,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B44">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>1333.0</v>
+        <v>27755.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -1633,7 +1654,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I44">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -1641,19 +1662,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B45">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>27755.0</v>
+        <v>4933.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -1662,7 +1683,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1670,19 +1691,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B46">
-        <v>234155.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>4933.0</v>
+        <v>8124.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -1699,19 +1720,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B47">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>8124.0</v>
+        <v>2137.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -1728,19 +1749,19 @@
         <v>2003.0</v>
       </c>
       <c s="1" r="B48">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>2137.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -1749,35 +1770,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c s="1" r="A49">
-        <v>2003.0</v>
-      </c>
-      <c s="1" r="B49">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C49">
-        <v>102</v>
-      </c>
-      <c s="1" r="D49">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E49">
-        <v>103</v>
-      </c>
-      <c s="1" r="F49">
-        <v>2948.0</v>
-      </c>
-      <c s="1" r="G49">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H49">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I49">
         <v>0.0</v>
       </c>
     </row>
